--- a/db_init/Upgraded_Panel_Pricing.xlsx
+++ b/db_init/Upgraded_Panel_Pricing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KenCook\Dev\SNaP-Blender-2.93\2.93\scripts\addons\snap\db_init\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KennethCook\Dev\GitHub\SNaP-2.0\snap\db_init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BBC407-A7B4-464D-9E0C-B62CFC5ADA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FCE9B5-2D56-4141-853E-F9A200E44EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="900" windowWidth="21540" windowHeight="10668" xr2:uid="{7EBF687A-48D7-4DE6-AC68-3709F84B39A1}"/>
+    <workbookView xWindow="948" yWindow="1920" windowWidth="22092" windowHeight="9132" xr2:uid="{7EBF687A-48D7-4DE6-AC68-3709F84B39A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F48ACDA-96F4-40E1-8E0F-98D2D5B4C1D9}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1006,7 +1006,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
@@ -1023,7 +1023,7 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>41</v>
